--- a/RCSA/Case assignment/DHL/Anmol More.xlsx
+++ b/RCSA/Case assignment/DHL/Anmol More.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anmol/OneDrive - Indian School of Business/Github/ISB-Term3/RCSA/Case assignment/DHL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1981" documentId="13_ncr:1_{C4B403D4-8CC2-124D-BA83-8AC18BDE268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{378983C3-9246-E845-B6A4-08301E85E4DA}"/>
+  <xr:revisionPtr revIDLastSave="2074" documentId="13_ncr:1_{C4B403D4-8CC2-124D-BA83-8AC18BDE268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{568F43F2-662E-9443-97DA-9AFA519C44FE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" activeTab="1" xr2:uid="{3DA490F5-B9CC-8A41-8BE8-D54CF7CC6091}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" activeTab="2" xr2:uid="{3DA490F5-B9CC-8A41-8BE8-D54CF7CC6091}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimize Cost" sheetId="4" r:id="rId1"/>
@@ -575,14 +575,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD9AA0E-4D44-184E-8A99-7620269C259C}">
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H45" sqref="G45:H45"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1586,23 +1586,23 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <f>B11+(D11*$B$3)</f>
+        <f t="shared" ref="D25:D31" si="0">B11+(D11*$B$3)</f>
         <v>3400.2000000000003</v>
       </c>
       <c r="E25" s="2">
-        <f>B11+(E11*$B$3)</f>
+        <f t="shared" ref="E25:E31" si="1">B11+(E11*$B$3)</f>
         <v>3541.88</v>
       </c>
       <c r="F25" s="2">
-        <f>B11+(F11*$B$3)</f>
+        <f t="shared" ref="F25:F31" si="2">B11+(F11*$B$3)</f>
         <v>2119.4128000000001</v>
       </c>
       <c r="G25" s="2">
-        <f>B11+(G11*$B$3)</f>
+        <f t="shared" ref="G25:G31" si="3">B11+(G11*$B$3)</f>
         <v>2098.1608000000001</v>
       </c>
       <c r="H25" s="2">
-        <f>B11+(H11*$B$3)</f>
+        <f t="shared" ref="H25:H31" si="4">B11+(H11*$B$3)</f>
         <v>2089.66</v>
       </c>
       <c r="I25" s="2">
@@ -1610,35 +1610,35 @@
         <v>2076.9088000000002</v>
       </c>
       <c r="J25" s="2">
-        <f>B11+(J11*$B$3)</f>
+        <f t="shared" ref="J25:J31" si="5">B11+(J11*$B$3)</f>
         <v>2051.4064000000003</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ref="L25:L31" si="0">$B$3*$B$7*L11</f>
+        <f t="shared" ref="L25:L31" si="6">$B$3*$B$7*L11</f>
         <v>79.453440000000001</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ref="M25:M31" si="1">$B$3*$C$7*M11</f>
+        <f t="shared" ref="M25:M31" si="7">$B$3*$C$7*M11</f>
         <v>79.453440000000001</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" ref="N25:N31" si="2">$B$3*$D$7*N11</f>
+        <f t="shared" ref="N25:N31" si="8">$B$3*$D$7*N11</f>
         <v>3.3822888</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" ref="O25:O31" si="3">$B$3*$E$7*O11</f>
+        <f t="shared" ref="O25:O31" si="9">$B$3*$E$7*O11</f>
         <v>3.3822888</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" ref="P25:P31" si="4">$B$3*$F$7*P11</f>
+        <f t="shared" ref="P25:P31" si="10">$B$3*$F$7*P11</f>
         <v>3.3822888</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" ref="Q25:Q31" si="5">$B$3*$G$7*Q11</f>
+        <f t="shared" ref="Q25:Q31" si="11">$B$3*$G$7*Q11</f>
         <v>1.5725159999999998</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" ref="R25:R31" si="6">$B$3*$H$7*R11</f>
+        <f t="shared" ref="R25:R31" si="12">$B$3*$H$7*R11</f>
         <v>0.38623200000000002</v>
       </c>
     </row>
@@ -1647,23 +1647,23 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <f>B12+(D12*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4804.24</v>
       </c>
       <c r="E26" s="2">
-        <f>B12+(E12*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5059.2640000000001</v>
       </c>
       <c r="F26" s="2">
-        <f>B12+(F12*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2409.848</v>
       </c>
       <c r="G26" s="2">
-        <f>B12+(G12*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2381.5120000000002</v>
       </c>
       <c r="H26" s="2">
-        <f>B12+(H12*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2378.6783999999998</v>
       </c>
       <c r="I26" s="2">
@@ -1671,35 +1671,35 @@
         <v>2381.5120000000002</v>
       </c>
       <c r="J26" s="2">
-        <f>B12+(J12*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2313.5056</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>49.199039999999997</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>49.199039999999997</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.9737309999999999</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.23916200000000001</v>
       </c>
     </row>
@@ -1708,23 +1708,23 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <f>B13+(D13*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4849.28</v>
       </c>
       <c r="E27" s="2">
-        <f>B13+(E13*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5075.9680000000008</v>
       </c>
       <c r="F27" s="2">
-        <f>B13+(F13*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2738.248</v>
       </c>
       <c r="G27" s="2">
-        <f>B13+(G13*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2709.9120000000003</v>
       </c>
       <c r="H27" s="2">
-        <f>B13+(H13*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2707.0783999999999</v>
       </c>
       <c r="I27" s="2">
@@ -1732,35 +1732,35 @@
         <v>2709.9120000000003</v>
       </c>
       <c r="J27" s="2">
-        <f>B13+(J13*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2654.6568000000002</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>43.718400000000003</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>43.718400000000003</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.86525999999999992</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.21252000000000001</v>
       </c>
     </row>
@@ -1769,23 +1769,23 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <f>B14+(D14*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>3392.9</v>
       </c>
       <c r="E28" s="2">
-        <f>B14+(E14*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>3534.58</v>
       </c>
       <c r="F28" s="2">
-        <f>B14+(F14*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2112.1127999999999</v>
       </c>
       <c r="G28" s="2">
-        <f>B14+(G14*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2092.2775999999999</v>
       </c>
       <c r="H28" s="2">
-        <f>B14+(H14*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2090.8607999999999</v>
       </c>
       <c r="I28" s="2">
@@ -1793,35 +1793,35 @@
         <v>2069.6088</v>
       </c>
       <c r="J28" s="2">
-        <f>B14+(J14*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2044.1063999999999</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.111999999999995</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>68.111999999999995</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.34805</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.33110000000000001</v>
       </c>
     </row>
@@ -1830,31 +1830,31 @@
         <v>6</v>
       </c>
       <c r="D29" s="3">
-        <f>B15+(D15*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>66002711.29999999</v>
       </c>
       <c r="E29" s="3">
-        <f>B15+(E15*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>66002711.29999999</v>
       </c>
       <c r="F29" s="2">
-        <f>B15+(F15*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2923.82</v>
       </c>
       <c r="G29" s="2">
-        <f>B15+(G15*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2909.652</v>
       </c>
       <c r="H29" s="2">
-        <f>B15+(H15*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2902.5680000000002</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" ref="I29:I30" si="7">B15+(I15*$B$3)</f>
+        <f t="shared" ref="I29:I30" si="13">B15+(I15*$B$3)</f>
         <v>66002711.29999999</v>
       </c>
       <c r="J29" s="3">
-        <f>B15+(J15*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>66002711.29999999</v>
       </c>
       <c r="L29" s="7">
@@ -1862,27 +1862,27 @@
         <v>31680</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>31680</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>627</v>
       </c>
       <c r="R29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
     </row>
@@ -1891,59 +1891,59 @@
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <f>B16+(D16*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>5680.08</v>
       </c>
       <c r="E30" s="2">
-        <f>B16+(E16*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5963.4400000000005</v>
       </c>
       <c r="F30" s="3">
-        <f>B16+(F16*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>66002704.79999999</v>
       </c>
       <c r="G30" s="3">
-        <f>B16+(G16*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>66002704.79999999</v>
       </c>
       <c r="H30" s="3">
-        <f>B16+(H16*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>66002704.79999999</v>
       </c>
       <c r="I30" s="3">
+        <f t="shared" si="13"/>
+        <v>66002704.79999999</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="5"/>
+        <v>2779.8904000000002</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="6"/>
+        <v>21.859200000000001</v>
+      </c>
+      <c r="M30" s="1">
         <f t="shared" si="7"/>
-        <v>66002704.79999999</v>
-      </c>
-      <c r="J30" s="2">
-        <f>B16+(J16*$B$3)</f>
-        <v>2779.8904000000002</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="M30" s="1">
-        <f t="shared" si="1"/>
-        <v>21.859200000000001</v>
-      </c>
       <c r="N30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1348.6</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1348.6</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1348.6</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>627</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.10626000000000001</v>
       </c>
     </row>
@@ -1952,23 +1952,23 @@
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <f>B17+(D17*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4392.08</v>
       </c>
       <c r="E31" s="2">
-        <f>B17+(E17*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>4604.6000000000004</v>
       </c>
       <c r="F31" s="2">
-        <f>B17+(F17*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2281.0480000000002</v>
       </c>
       <c r="G31" s="2">
-        <f>B17+(G17*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2252.7120000000004</v>
       </c>
       <c r="H31" s="2">
-        <f>B17+(H17*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2247.0448000000001</v>
       </c>
       <c r="I31" s="2">
@@ -1976,35 +1976,35 @@
         <v>2254.1288000000004</v>
       </c>
       <c r="J31" s="2">
-        <f>B17+(J17*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2186.1224000000002</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>21.732479999999999</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>21.732479999999999</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.43012199999999995</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.105644</v>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="K35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" ref="K37:K42" si="8">SUM(D37:J37)</f>
+        <f t="shared" ref="K37:K42" si="14">SUM(D37:J37)</f>
         <v>0</v>
       </c>
       <c r="M37" t="s">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M38" t="s">
@@ -2317,7 +2317,7 @@
         <v>600000</v>
       </c>
       <c r="K39" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>600000</v>
       </c>
       <c r="M39" t="s">
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M40" t="s">
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M41" t="s">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2527,6 +2527,10 @@
       </c>
     </row>
     <row r="45" spans="1:18">
+      <c r="J45">
+        <f>SUM(J36:J44)</f>
+        <v>962000</v>
+      </c>
       <c r="M45" t="s">
         <v>42</v>
       </c>
@@ -2554,7 +2558,7 @@
       <c r="J47" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="14">
         <f>SUMPRODUCT(D36:J44,L25:R33)</f>
         <v>7944511.0338000013</v>
       </c>
@@ -2575,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A38B8C-CB0E-0E46-AF57-6063E9579662}">
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:P49"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3261,23 +3265,23 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <f>B11+(D11*$B$3)</f>
+        <f t="shared" ref="D25:D31" si="0">B11+(D11*$B$3)</f>
         <v>3400.2000000000003</v>
       </c>
       <c r="E25" s="2">
-        <f>B11+(E11*$B$3)</f>
+        <f t="shared" ref="E25:E31" si="1">B11+(E11*$B$3)</f>
         <v>3541.88</v>
       </c>
       <c r="F25" s="2">
-        <f>B11+(F11*$B$3)</f>
+        <f t="shared" ref="F25:F31" si="2">B11+(F11*$B$3)</f>
         <v>2119.4128000000001</v>
       </c>
       <c r="G25" s="2">
-        <f>B11+(G11*$B$3)</f>
+        <f t="shared" ref="G25:G31" si="3">B11+(G11*$B$3)</f>
         <v>2098.1608000000001</v>
       </c>
       <c r="H25" s="2">
-        <f>B11+(H11*$B$3)</f>
+        <f t="shared" ref="H25:H31" si="4">B11+(H11*$B$3)</f>
         <v>2089.66</v>
       </c>
       <c r="I25" s="2">
@@ -3285,35 +3289,35 @@
         <v>2076.9088000000002</v>
       </c>
       <c r="J25" s="2">
-        <f>B11+(J11*$B$3)</f>
+        <f t="shared" ref="J25:J31" si="5">B11+(J11*$B$3)</f>
         <v>2051.4064000000003</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ref="L25:L31" si="0">$B$3*$B$7*L11</f>
+        <f t="shared" ref="L25:L31" si="6">$B$3*$B$7*L11</f>
         <v>79.453440000000001</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ref="M25:M31" si="1">$B$3*$C$7*M11</f>
+        <f t="shared" ref="M25:M31" si="7">$B$3*$C$7*M11</f>
         <v>79.453440000000001</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" ref="N25:N31" si="2">$B$3*$D$7*N11</f>
+        <f t="shared" ref="N25:N31" si="8">$B$3*$D$7*N11</f>
         <v>3.3822888</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" ref="O25:O31" si="3">$B$3*$E$7*O11</f>
+        <f t="shared" ref="O25:O31" si="9">$B$3*$E$7*O11</f>
         <v>3.3822888</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" ref="P25:P31" si="4">$B$3*$F$7*P11</f>
+        <f t="shared" ref="P25:P31" si="10">$B$3*$F$7*P11</f>
         <v>3.3822888</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" ref="Q25:Q31" si="5">$B$3*$G$7*Q11</f>
+        <f t="shared" ref="Q25:Q31" si="11">$B$3*$G$7*Q11</f>
         <v>1.5725159999999998</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" ref="R25:R31" si="6">$B$3*$H$7*R11</f>
+        <f t="shared" ref="R25:R31" si="12">$B$3*$H$7*R11</f>
         <v>0.38623200000000002</v>
       </c>
     </row>
@@ -3322,23 +3326,23 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <f>B12+(D12*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4804.24</v>
       </c>
       <c r="E26" s="2">
-        <f>B12+(E12*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5059.2640000000001</v>
       </c>
       <c r="F26" s="2">
-        <f>B12+(F12*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2409.848</v>
       </c>
       <c r="G26" s="2">
-        <f>B12+(G12*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2381.5120000000002</v>
       </c>
       <c r="H26" s="2">
-        <f>B12+(H12*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2378.6783999999998</v>
       </c>
       <c r="I26" s="2">
@@ -3346,35 +3350,35 @@
         <v>2381.5120000000002</v>
       </c>
       <c r="J26" s="2">
-        <f>B12+(J12*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2313.5056</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>49.199039999999997</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>49.199039999999997</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.9737309999999999</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.23916200000000001</v>
       </c>
     </row>
@@ -3383,23 +3387,23 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <f>B13+(D13*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4849.28</v>
       </c>
       <c r="E27" s="2">
-        <f>B13+(E13*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5075.9680000000008</v>
       </c>
       <c r="F27" s="2">
-        <f>B13+(F13*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2738.248</v>
       </c>
       <c r="G27" s="2">
-        <f>B13+(G13*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2709.9120000000003</v>
       </c>
       <c r="H27" s="2">
-        <f>B13+(H13*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2707.0783999999999</v>
       </c>
       <c r="I27" s="2">
@@ -3407,35 +3411,35 @@
         <v>2709.9120000000003</v>
       </c>
       <c r="J27" s="2">
-        <f>B13+(J13*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2654.6568000000002</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>43.718400000000003</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>43.718400000000003</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.86525999999999992</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.21252000000000001</v>
       </c>
     </row>
@@ -3444,23 +3448,23 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <f>B14+(D14*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>3392.9</v>
       </c>
       <c r="E28" s="2">
-        <f>B14+(E14*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>3534.58</v>
       </c>
       <c r="F28" s="2">
-        <f>B14+(F14*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2112.1127999999999</v>
       </c>
       <c r="G28" s="2">
-        <f>B14+(G14*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2092.2775999999999</v>
       </c>
       <c r="H28" s="2">
-        <f>B14+(H14*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2090.8607999999999</v>
       </c>
       <c r="I28" s="2">
@@ -3468,35 +3472,35 @@
         <v>2069.6088</v>
       </c>
       <c r="J28" s="2">
-        <f>B14+(J14*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2044.1063999999999</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.111999999999995</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>68.111999999999995</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.34805</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.33110000000000001</v>
       </c>
     </row>
@@ -3505,31 +3509,31 @@
         <v>6</v>
       </c>
       <c r="D29" s="3">
-        <f>B15+(D15*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>66002711.29999999</v>
       </c>
       <c r="E29" s="3">
-        <f>B15+(E15*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>66002711.29999999</v>
       </c>
       <c r="F29" s="2">
-        <f>B15+(F15*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2923.82</v>
       </c>
       <c r="G29" s="2">
-        <f>B15+(G15*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2909.652</v>
       </c>
       <c r="H29" s="2">
-        <f>B15+(H15*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2902.5680000000002</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" ref="I29:I30" si="7">B15+(I15*$B$3)</f>
+        <f t="shared" ref="I29:I30" si="13">B15+(I15*$B$3)</f>
         <v>66002711.29999999</v>
       </c>
       <c r="J29" s="3">
-        <f>B15+(J15*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>66002711.29999999</v>
       </c>
       <c r="L29" s="7">
@@ -3537,27 +3541,27 @@
         <v>31680</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>31680</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>627</v>
       </c>
       <c r="R29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
     </row>
@@ -3566,59 +3570,59 @@
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <f>B16+(D16*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>5680.08</v>
       </c>
       <c r="E30" s="2">
-        <f>B16+(E16*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5963.4400000000005</v>
       </c>
       <c r="F30" s="3">
-        <f>B16+(F16*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>66002704.79999999</v>
       </c>
       <c r="G30" s="3">
-        <f>B16+(G16*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>66002704.79999999</v>
       </c>
       <c r="H30" s="3">
-        <f>B16+(H16*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>66002704.79999999</v>
       </c>
       <c r="I30" s="3">
+        <f t="shared" si="13"/>
+        <v>66002704.79999999</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="5"/>
+        <v>2779.8904000000002</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="6"/>
+        <v>21.859200000000001</v>
+      </c>
+      <c r="M30" s="1">
         <f t="shared" si="7"/>
-        <v>66002704.79999999</v>
-      </c>
-      <c r="J30" s="2">
-        <f>B16+(J16*$B$3)</f>
-        <v>2779.8904000000002</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="M30" s="1">
-        <f t="shared" si="1"/>
-        <v>21.859200000000001</v>
-      </c>
       <c r="N30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1348.6</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1348.6</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1348.6</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>627</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.10626000000000001</v>
       </c>
     </row>
@@ -3627,23 +3631,23 @@
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <f>B17+(D17*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4392.08</v>
       </c>
       <c r="E31" s="2">
-        <f>B17+(E17*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>4604.6000000000004</v>
       </c>
       <c r="F31" s="2">
-        <f>B17+(F17*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2281.0480000000002</v>
       </c>
       <c r="G31" s="2">
-        <f>B17+(G17*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2252.7120000000004</v>
       </c>
       <c r="H31" s="2">
-        <f>B17+(H17*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2247.0448000000001</v>
       </c>
       <c r="I31" s="2">
@@ -3651,35 +3655,35 @@
         <v>2254.1288000000004</v>
       </c>
       <c r="J31" s="2">
-        <f>B17+(J17*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2186.1224000000002</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>21.732479999999999</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>21.732479999999999</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.43012199999999995</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.105644</v>
       </c>
     </row>
@@ -3830,12 +3834,12 @@
       <c r="K35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
@@ -3906,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" ref="K37:K42" si="8">SUM(D37:J37)</f>
+        <f t="shared" ref="K37:K42" si="14">SUM(D37:J37)</f>
         <v>0</v>
       </c>
       <c r="M37" t="s">
@@ -3949,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M38" t="s">
@@ -3992,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M39" t="s">
@@ -4035,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>600000</v>
       </c>
       <c r="M40" t="s">
@@ -4078,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M41" t="s">
@@ -4121,7 +4125,7 @@
         <v>136000</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>320000</v>
       </c>
     </row>
@@ -4227,7 +4231,7 @@
       <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="13">
         <f>SUMPRODUCT(L25:R33,D36:J44)</f>
         <v>3293331.1449499996</v>
       </c>
@@ -4248,8 +4252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3675E6-7B90-4345-92B8-F32154C2D576}">
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:J35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4934,23 +4938,23 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <f>B11+(D11*$B$3)</f>
+        <f t="shared" ref="D25:D31" si="0">B11+(D11*$B$3)</f>
         <v>3400.2000000000003</v>
       </c>
       <c r="E25" s="2">
-        <f>B11+(E11*$B$3)</f>
+        <f t="shared" ref="E25:E31" si="1">B11+(E11*$B$3)</f>
         <v>3541.88</v>
       </c>
       <c r="F25" s="2">
-        <f>B11+(F11*$B$3)</f>
+        <f t="shared" ref="F25:F31" si="2">B11+(F11*$B$3)</f>
         <v>2119.4128000000001</v>
       </c>
       <c r="G25" s="2">
-        <f>B11+(G11*$B$3)</f>
+        <f t="shared" ref="G25:G31" si="3">B11+(G11*$B$3)</f>
         <v>2098.1608000000001</v>
       </c>
       <c r="H25" s="2">
-        <f>B11+(H11*$B$3)</f>
+        <f t="shared" ref="H25:H31" si="4">B11+(H11*$B$3)</f>
         <v>2089.66</v>
       </c>
       <c r="I25" s="2">
@@ -4958,35 +4962,35 @@
         <v>2076.9088000000002</v>
       </c>
       <c r="J25" s="2">
-        <f>B11+(J11*$B$3)</f>
+        <f t="shared" ref="J25:J31" si="5">B11+(J11*$B$3)</f>
         <v>2051.4064000000003</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ref="L25:L31" si="0">$B$3*$B$7*L11</f>
+        <f t="shared" ref="L25:L31" si="6">$B$3*$B$7*L11</f>
         <v>79.453440000000001</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ref="M25:M31" si="1">$B$3*$C$7*M11</f>
+        <f t="shared" ref="M25:M31" si="7">$B$3*$C$7*M11</f>
         <v>79.453440000000001</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" ref="N25:N31" si="2">$B$3*$D$7*N11</f>
+        <f t="shared" ref="N25:N31" si="8">$B$3*$D$7*N11</f>
         <v>3.3822888</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" ref="O25:O31" si="3">$B$3*$E$7*O11</f>
+        <f t="shared" ref="O25:O31" si="9">$B$3*$E$7*O11</f>
         <v>3.3822888</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" ref="P25:P31" si="4">$B$3*$F$7*P11</f>
+        <f t="shared" ref="P25:P31" si="10">$B$3*$F$7*P11</f>
         <v>3.3822888</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" ref="Q25:Q31" si="5">$B$3*$G$7*Q11</f>
+        <f t="shared" ref="Q25:Q31" si="11">$B$3*$G$7*Q11</f>
         <v>1.5725159999999998</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" ref="R25:R31" si="6">$B$3*$H$7*R11</f>
+        <f t="shared" ref="R25:R31" si="12">$B$3*$H$7*R11</f>
         <v>0.38623200000000002</v>
       </c>
     </row>
@@ -4995,23 +4999,23 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <f>B12+(D12*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4804.24</v>
       </c>
       <c r="E26" s="2">
-        <f>B12+(E12*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5059.2640000000001</v>
       </c>
       <c r="F26" s="2">
-        <f>B12+(F12*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2409.848</v>
       </c>
       <c r="G26" s="2">
-        <f>B12+(G12*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2381.5120000000002</v>
       </c>
       <c r="H26" s="2">
-        <f>B12+(H12*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2378.6783999999998</v>
       </c>
       <c r="I26" s="2">
@@ -5019,35 +5023,35 @@
         <v>2381.5120000000002</v>
       </c>
       <c r="J26" s="2">
-        <f>B12+(J12*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2313.5056</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>49.199039999999997</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>49.199039999999997</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0943757999999999</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.9737309999999999</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.23916200000000001</v>
       </c>
     </row>
@@ -5056,23 +5060,23 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <f>B13+(D13*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4849.28</v>
       </c>
       <c r="E27" s="2">
-        <f>B13+(E13*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5075.9680000000008</v>
       </c>
       <c r="F27" s="2">
-        <f>B13+(F13*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2738.248</v>
       </c>
       <c r="G27" s="2">
-        <f>B13+(G13*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2709.9120000000003</v>
       </c>
       <c r="H27" s="2">
-        <f>B13+(H13*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2707.0783999999999</v>
       </c>
       <c r="I27" s="2">
@@ -5080,35 +5084,35 @@
         <v>2709.9120000000003</v>
       </c>
       <c r="J27" s="2">
-        <f>B13+(J13*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2654.6568000000002</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>43.718400000000003</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>43.718400000000003</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.8610679999999999</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.86525999999999992</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.21252000000000001</v>
       </c>
     </row>
@@ -5117,23 +5121,23 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <f>B14+(D14*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>3392.9</v>
       </c>
       <c r="E28" s="2">
-        <f>B14+(E14*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>3534.58</v>
       </c>
       <c r="F28" s="2">
-        <f>B14+(F14*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2112.1127999999999</v>
       </c>
       <c r="G28" s="2">
-        <f>B14+(G14*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2092.2775999999999</v>
       </c>
       <c r="H28" s="2">
-        <f>B14+(H14*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2090.8607999999999</v>
       </c>
       <c r="I28" s="2">
@@ -5141,35 +5145,35 @@
         <v>2069.6088</v>
       </c>
       <c r="J28" s="2">
-        <f>B14+(J14*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2044.1063999999999</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>68.111999999999995</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>68.111999999999995</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.8994899999999997</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.34805</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.33110000000000001</v>
       </c>
     </row>
@@ -5178,31 +5182,31 @@
         <v>6</v>
       </c>
       <c r="D29" s="3">
-        <f>B15+(D15*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>66002711.29999999</v>
       </c>
       <c r="E29" s="3">
-        <f>B15+(E15*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>66002711.29999999</v>
       </c>
       <c r="F29" s="2">
-        <f>B15+(F15*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2923.82</v>
       </c>
       <c r="G29" s="2">
-        <f>B15+(G15*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2909.652</v>
       </c>
       <c r="H29" s="2">
-        <f>B15+(H15*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2902.5680000000002</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" ref="I29:I30" si="7">B15+(I15*$B$3)</f>
+        <f t="shared" ref="I29:I30" si="13">B15+(I15*$B$3)</f>
         <v>66002711.29999999</v>
       </c>
       <c r="J29" s="3">
-        <f>B15+(J15*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>66002711.29999999</v>
       </c>
       <c r="L29" s="7">
@@ -5210,27 +5214,27 @@
         <v>31680</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>31680</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.0458000000000001E-2</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>627</v>
       </c>
       <c r="R29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
     </row>
@@ -5239,59 +5243,59 @@
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <f>B16+(D16*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>5680.08</v>
       </c>
       <c r="E30" s="2">
-        <f>B16+(E16*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>5963.4400000000005</v>
       </c>
       <c r="F30" s="3">
-        <f>B16+(F16*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>66002704.79999999</v>
       </c>
       <c r="G30" s="3">
-        <f>B16+(G16*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>66002704.79999999</v>
       </c>
       <c r="H30" s="3">
-        <f>B16+(H16*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>66002704.79999999</v>
       </c>
       <c r="I30" s="3">
+        <f t="shared" si="13"/>
+        <v>66002704.79999999</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="5"/>
+        <v>2779.8904000000002</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="6"/>
+        <v>21.859200000000001</v>
+      </c>
+      <c r="M30" s="1">
         <f t="shared" si="7"/>
-        <v>66002704.79999999</v>
-      </c>
-      <c r="J30" s="2">
-        <f>B16+(J16*$B$3)</f>
-        <v>2779.8904000000002</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
         <v>21.859200000000001</v>
       </c>
-      <c r="M30" s="1">
-        <f t="shared" si="1"/>
-        <v>21.859200000000001</v>
-      </c>
       <c r="N30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1348.6</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1348.6</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1348.6</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>627</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.10626000000000001</v>
       </c>
     </row>
@@ -5300,23 +5304,23 @@
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <f>B17+(D17*$B$3)</f>
+        <f t="shared" si="0"/>
         <v>4392.08</v>
       </c>
       <c r="E31" s="2">
-        <f>B17+(E17*$B$3)</f>
+        <f t="shared" si="1"/>
         <v>4604.6000000000004</v>
       </c>
       <c r="F31" s="2">
-        <f>B17+(F17*$B$3)</f>
+        <f t="shared" si="2"/>
         <v>2281.0480000000002</v>
       </c>
       <c r="G31" s="2">
-        <f>B17+(G17*$B$3)</f>
+        <f t="shared" si="3"/>
         <v>2252.7120000000004</v>
       </c>
       <c r="H31" s="2">
-        <f>B17+(H17*$B$3)</f>
+        <f t="shared" si="4"/>
         <v>2247.0448000000001</v>
       </c>
       <c r="I31" s="2">
@@ -5324,35 +5328,35 @@
         <v>2254.1288000000004</v>
       </c>
       <c r="J31" s="2">
-        <f>B17+(J17*$B$3)</f>
+        <f t="shared" si="5"/>
         <v>2186.1224000000002</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>21.732479999999999</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>21.732479999999999</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.92513959999999995</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.43012199999999995</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.105644</v>
       </c>
     </row>
@@ -5576,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" ref="K37:K44" si="8">SUM(D37:J37)</f>
+        <f t="shared" ref="K37:K42" si="14">SUM(D37:J37)</f>
         <v>0</v>
       </c>
       <c r="M37" t="s">
@@ -5619,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M38" t="s">
@@ -5662,7 +5666,7 @@
         <v>228000</v>
       </c>
       <c r="K39" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>228000</v>
       </c>
       <c r="M39" t="s">
@@ -5705,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>92000</v>
       </c>
       <c r="M40" t="s">
@@ -5748,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M41" t="s">
@@ -5791,7 +5795,7 @@
         <v>416000</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>600000</v>
       </c>
     </row>
@@ -5856,6 +5860,10 @@
       </c>
     </row>
     <row r="45" spans="1:18">
+      <c r="J45">
+        <f>SUM(J36:J44)</f>
+        <v>962000</v>
+      </c>
       <c r="M45" t="s">
         <v>34</v>
       </c>
@@ -5897,7 +5905,7 @@
       <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="13">
         <f>SUMPRODUCT(L25:R33,D36:J44)</f>
         <v>3406266.3928149994</v>
       </c>
